--- a/config/AntiSac_config/AntiSac_run3.xlsx
+++ b/config/AntiSac_config/AntiSac_run3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1091,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1131,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>6.725</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1151,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="2">
-        <v>8.8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>11.125</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>13.2</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1211,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="2">
-        <v>15.275</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>17.35</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="2">
-        <v>19.425</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1271,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2">
-        <v>21.75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1291,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="2">
-        <v>24.075</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="2">
-        <v>26.65</v>
+        <v>26.95</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1331,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="2">
-        <v>29.475</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1351,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="2">
-        <v>31.8</v>
+        <v>32.15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="2">
-        <v>34.125</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="2">
-        <v>36.95</v>
+        <v>37.35</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1411,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="2">
-        <v>39.275</v>
+        <v>39.7</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="2">
-        <v>41.85</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1452,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="2">
-        <v>44.425</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1472,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="2">
-        <v>47</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="2">
-        <v>49.325</v>
+        <v>49.85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="2">
-        <v>51.15</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>52.975</v>
+        <v>53.55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="2">
-        <v>55.55</v>
+        <v>56.15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1572,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="2">
-        <v>57.875</v>
+        <v>58.5</v>
       </c>
     </row>
   </sheetData>

--- a/config/AntiSac_config/AntiSac_run3.xlsx
+++ b/config/AntiSac_config/AntiSac_run3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1091,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1131,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>6.8</v>
+        <v>6.725</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1151,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="2">
-        <v>8.9</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>11.25</v>
+        <v>11.125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>13.35</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1211,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="2">
-        <v>15.45</v>
+        <v>15.275</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>17.55</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="2">
-        <v>19.65</v>
+        <v>19.425</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1271,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2">
-        <v>22</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1291,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="2">
-        <v>24.35</v>
+        <v>24.075</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="2">
-        <v>26.95</v>
+        <v>26.65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1331,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="2">
-        <v>29.8</v>
+        <v>29.475</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1351,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="2">
-        <v>32.15</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="2">
-        <v>34.5</v>
+        <v>34.125</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="2">
-        <v>37.35</v>
+        <v>36.95</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1411,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="2">
-        <v>39.7</v>
+        <v>39.275</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="2">
-        <v>42.3</v>
+        <v>41.85</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1452,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="2">
-        <v>44.9</v>
+        <v>44.425</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1472,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="2">
-        <v>47.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="2">
-        <v>49.85</v>
+        <v>49.325</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="2">
-        <v>51.7</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>53.55</v>
+        <v>52.975</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="2">
-        <v>56.15</v>
+        <v>55.55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1572,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="2">
-        <v>58.5</v>
+        <v>57.875</v>
       </c>
     </row>
   </sheetData>
